--- a/aro 4 estimator.xlsx
+++ b/aro 4 estimator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\aro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydodg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A62B1B3-7B74-428E-9A83-2080733D7A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB1519-382C-47F9-93FD-BCF4923EA596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
+    <workbookView xWindow="34290" yWindow="-110" windowWidth="34620" windowHeight="14620" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
   </bookViews>
   <sheets>
     <sheet name="ESTIMATE" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1FF76-4A77-49D0-8CE9-F18C5D44135E}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1743,11 +1743,11 @@
         <v>74</v>
       </c>
       <c r="B23" s="1">
-        <f>$O$23*B6</f>
+        <f>$O$23*SUM(B6,B10,B14)</f>
         <v>60</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:M23" si="3">$O$23*C6</f>
+        <f t="shared" ref="C23:M23" si="3">$O$23*SUM(C6,C10,C14)</f>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1863,11 +1863,11 @@
         <v>75</v>
       </c>
       <c r="B25" s="1">
-        <f>SUM(B18,B14,B10)*$O$25</f>
+        <f>B18*$O$25</f>
         <v>405</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:M25" si="4">SUM(C18,C14,C10)*$O$25</f>
+        <f t="shared" ref="C25:M25" si="4">C18*$O$25</f>
         <v>405</v>
       </c>
       <c r="D25" s="1">
